--- a/Input/Medgulf_Nextcare/benefits.xlsx
+++ b/Input/Medgulf_Nextcare/benefits.xlsx
@@ -193,7 +193,7 @@
     <t xml:space="preserve">AED 1,000,000</t>
   </si>
   <si>
-    <t xml:space="preserve">Worldwide</t>
+    <t xml:space="preserve">Worldwide including USA</t>
   </si>
   <si>
     <t xml:space="preserve">Nextcare GN+</t>
@@ -508,8 +508,8 @@
   </sheetPr>
   <dimension ref="A1:BG7"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="E1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="P4" activeCellId="0" sqref="P4"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="75" zoomScaleNormal="75" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E8" activeCellId="0" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
